--- a/userdetails.xlsx
+++ b/userdetails.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunja\eclipse-workspace\SimpleSolutionLearnSelenium\"/>
     </mc:Choice>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>address</t>
   </si>
@@ -91,12 +91,16 @@
   </si>
   <si>
     <t>status</t>
+  </si>
+  <si>
+    <t>PASS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -461,7 +465,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -500,6 +504,9 @@
       <c r="E2" t="s">
         <v>17</v>
       </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -517,6 +524,9 @@
       <c r="E3" t="s">
         <v>18</v>
       </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -534,6 +544,9 @@
       <c r="E4" t="s">
         <v>19</v>
       </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -550,6 +563,9 @@
       </c>
       <c r="E5" t="s">
         <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/userdetails.xlsx
+++ b/userdetails.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunja\eclipse-workspace\SimpleSolutionLearnSelenium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A8192E-E1C5-4509-AF1B-EE9BEF1B597D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7031B633-F52F-4BE9-A265-794E946BFCD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>address</t>
   </si>
@@ -91,16 +91,12 @@
   </si>
   <si>
     <t>status</t>
-  </si>
-  <si>
-    <t>PASS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -460,12 +456,12 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F2" sqref="F2:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -504,9 +500,6 @@
       <c r="E2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -524,9 +517,6 @@
       <c r="E3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -544,9 +534,6 @@
       <c r="E4" t="s">
         <v>19</v>
       </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -563,9 +550,6 @@
       </c>
       <c r="E5" t="s">
         <v>20</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
